--- a/Vallarta/rondaA.xlsx
+++ b/Vallarta/rondaA.xlsx
@@ -46,10 +46,10 @@
 ¡Lleva tu carrera al siguiente nivel! 🌟</t>
   </si>
   <si>
-    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\summita.png</t>
+    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\summita.png</t>
   </si>
   <si>
-    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\simmitb.png</t>
+    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\simmitb.png</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3112481335</v>
+        <v>3112858211</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -437,18 +437,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3118907454</v>
+        <v>3310744374</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3112834759</v>
+        <v>3112489208</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3314573759</v>
+        <v>3311764121</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -470,29 +470,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3112601304</v>
+        <v>3221123535</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3311764121</v>
+        <v>3112502561</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3118479269</v>
+        <v>3121420274</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -503,18 +503,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3121574141</v>
+        <v>3221681790</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3112665025</v>
+        <v>3112481335</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -525,18 +525,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3112507624</v>
+        <v>3311452213</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3221685499</v>
+        <v>3221337319</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -547,29 +547,29 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3310744374</v>
+        <v>3118907454</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3112489208</v>
+        <v>3221682247</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3112664830</v>
+        <v>3118479269</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -580,51 +580,51 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3314100111</v>
+        <v>3112927010</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3221571339</v>
+        <v>3112646957</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3118513411</v>
+        <v>3314364228</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3118764555</v>
+        <v>3221571339</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3221822862</v>
+        <v>3224297819</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -635,18 +635,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3314364228</v>
+        <v>3118773475</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>3112629929</v>
+        <v>3112834759</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -657,18 +657,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3221208302</v>
+        <v>3121552887</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3311452213</v>
+        <v>3221171950</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -679,18 +679,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3117400922</v>
+        <v>3222297972</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3241088057</v>
+        <v>3312827904</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -701,40 +701,40 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3118479759</v>
+        <v>3314445523</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3311423355</v>
+        <v>3117400922</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3117402952</v>
+        <v>3221949339</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3221215616</v>
+        <v>3312415492</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -745,40 +745,40 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3221949339</v>
+        <v>3118478190</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3221337319</v>
+        <v>3112532477</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3112697278</v>
+        <v>3310431078</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3118475532</v>
+        <v>3118769256</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -789,29 +789,29 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3121552887</v>
+        <v>3221924259</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3221682247</v>
+        <v>3112600653</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3311473989</v>
+        <v>3221325598</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -822,29 +822,29 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3118769256</v>
+        <v>3221200655</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3121133096</v>
+        <v>3310726442</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3314445523</v>
+        <v>3314207946</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3112481033</v>
+        <v>3112601365</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3228886963</v>
+        <v>3312362568</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>3221924259</v>
+        <v>3314105200</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -888,18 +888,18 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>3310730500</v>
+        <v>3112665025</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>3221325598</v>
+        <v>3221506317</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3121014126</v>
+        <v>3112631691</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -921,18 +921,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>3221681790</v>
+        <v>3112637937</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>3312886339</v>
+        <v>3221215616</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -943,40 +943,40 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>3121420274</v>
+        <v>3311423355</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3312827904</v>
+        <v>3112507624</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3112671211</v>
+        <v>3311325352</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3118773475</v>
+        <v>3118475532</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -987,18 +987,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>3112600653</v>
+        <v>3310730500</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>3112646957</v>
+        <v>3112480487</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>3112858211</v>
+        <v>3117439583</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1020,29 +1020,29 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>3221171950</v>
+        <v>3118477102</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3313642794</v>
+        <v>3118479759</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>3221354105</v>
+        <v>3241088057</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -1053,18 +1053,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>3314207946</v>
+        <v>3121014126</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>3314105200</v>
+        <v>3314660148</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -1075,95 +1075,95 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3310220956</v>
+        <v>3118777167</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3119106877</v>
+        <v>3279789280</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3314660148</v>
+        <v>3118764555</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3118478190</v>
+        <v>3221354105</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3310459086</v>
+        <v>3113390655</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3221506317</v>
+        <v>3118475636</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3279789280</v>
+        <v>3118513411</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3221949339</v>
+        <v>3112696843</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3222297972</v>
+        <v>3314100111</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1174,18 +1174,18 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3310431078</v>
+        <v>3121133096</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3112480487</v>
+        <v>3112629929</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3121946751</v>
+        <v>3112601304</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3311325352</v>
+        <v>3311479227</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -1218,29 +1218,29 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3112631691</v>
+        <v>3221686052</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3112502561</v>
+        <v>3312698614</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3117439583</v>
+        <v>3112648479</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -1251,62 +1251,62 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3311479227</v>
+        <v>3112481033</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3312440447</v>
+        <v>3121574141</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3118477102</v>
+        <v>3314573759</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3221123535</v>
+        <v>3123181177</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3221200655</v>
+        <v>3112697278</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>3123181177</v>
+        <v>3112664830</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>3224297819</v>
+        <v>3119106877</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1339,18 +1339,18 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>3112927010</v>
+        <v>3221685499</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3312698614</v>
+        <v>3310459086</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -1361,51 +1361,51 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3112601365</v>
+        <v>3311473989</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>3113390655</v>
+        <v>3310220956</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3312362568</v>
+        <v>3121946751</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>3112637937</v>
+        <v>3312440447</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3118475636</v>
+        <v>3112666169</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -1416,18 +1416,18 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>3112696843</v>
+        <v>3221822862</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3221686052</v>
+        <v>3221949339</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>3118777167</v>
+        <v>3228886963</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1460,7 +1460,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>3112532477</v>
+        <v>3117434095</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>3310726442</v>
+        <v>3313642794</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
@@ -1482,40 +1482,40 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3112666169</v>
+        <v>3312886339</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>3117434095</v>
+        <v>3221208302</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3312415492</v>
+        <v>3117402952</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>3112648479</v>
+        <v>3112671211</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>

--- a/Vallarta/rondaA.xlsx
+++ b/Vallarta/rondaA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="82">
   <si>
     <t>Movil</t>
   </si>
@@ -25,13 +25,229 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
-https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0129</t>
+    <t>322 188 4128</t>
+  </si>
+  <si>
+    <t>322 123 3337</t>
+  </si>
+  <si>
+    <t>311 183 3030</t>
+  </si>
+  <si>
+    <t>322 728 4435</t>
+  </si>
+  <si>
+    <t>322 323 9442</t>
+  </si>
+  <si>
+    <t>311 195 0529</t>
+  </si>
+  <si>
+    <t>311 393 6401</t>
+  </si>
+  <si>
+    <t>322 356 3202</t>
+  </si>
+  <si>
+    <t>311 282 2626</t>
+  </si>
+  <si>
+    <t>311 456 3079</t>
+  </si>
+  <si>
+    <t>311 132 2039</t>
+  </si>
+  <si>
+    <t>311 137 1473</t>
+  </si>
+  <si>
+    <t>311 847 9195</t>
+  </si>
+  <si>
+    <t>322 172 1989</t>
+  </si>
+  <si>
+    <t>311 204 8920</t>
+  </si>
+  <si>
+    <t>322 144 7950</t>
+  </si>
+  <si>
+    <t>311 227 9358</t>
+  </si>
+  <si>
+    <t>311 285 8707</t>
+  </si>
+  <si>
+    <t>311 117 6490</t>
+  </si>
+  <si>
+    <t>311 136 5745</t>
+  </si>
+  <si>
+    <t>322 156 0912</t>
+  </si>
+  <si>
+    <t>311 269 5129</t>
+  </si>
+  <si>
+    <t>311 267 2411</t>
+  </si>
+  <si>
+    <t>311 391 1544</t>
+  </si>
+  <si>
+    <t>322 130 0378</t>
+  </si>
+  <si>
+    <t>311 136 1186</t>
+  </si>
+  <si>
+    <t>322 322 4297</t>
+  </si>
+  <si>
+    <t>322 306 0921</t>
+  </si>
+  <si>
+    <t>311 909 5778</t>
+  </si>
+  <si>
+    <t>311 331 4834</t>
+  </si>
+  <si>
+    <t>311 122 9842</t>
+  </si>
+  <si>
+    <t>322 245 7479</t>
+  </si>
+  <si>
+    <t>322 149 0269</t>
+  </si>
+  <si>
+    <t>311 184 8669</t>
+  </si>
+  <si>
+    <t>311 743 4233</t>
+  </si>
+  <si>
+    <t>322 144 5884</t>
+  </si>
+  <si>
+    <t>311 247 5008</t>
+  </si>
+  <si>
+    <t>311 263 2365</t>
+  </si>
+  <si>
+    <t>311 253 1963</t>
+  </si>
+  <si>
+    <t>311 851 0062</t>
+  </si>
+  <si>
+    <t>322 227 5695</t>
+  </si>
+  <si>
+    <t>311 132 6444</t>
+  </si>
+  <si>
+    <t>311 214 1802</t>
+  </si>
+  <si>
+    <t>311 324 5860</t>
+  </si>
+  <si>
+    <t>311 148 8691</t>
+  </si>
+  <si>
+    <t>311 264 6010</t>
+  </si>
+  <si>
+    <t>311 114 0469</t>
+  </si>
+  <si>
+    <t>311 141 7110</t>
+  </si>
+  <si>
+    <t>311 149 4576</t>
+  </si>
+  <si>
+    <t>322 136 3035</t>
+  </si>
+  <si>
+    <t>311 373 1640</t>
+  </si>
+  <si>
+    <t>311 201 2247</t>
+  </si>
+  <si>
+    <t>311 123 2038</t>
+  </si>
+  <si>
+    <t>311 740 3376</t>
+  </si>
+  <si>
+    <t>311 350 3291</t>
+  </si>
+  <si>
+    <t>311 250 5159</t>
+  </si>
+  <si>
+    <t>322 227 5467</t>
+  </si>
+  <si>
+    <t>311 593 6606</t>
+  </si>
+  <si>
+    <t>311 743 4849</t>
+  </si>
+  <si>
+    <t>311 107 8027</t>
+  </si>
+  <si>
+    <t>311 847 9142</t>
+  </si>
+  <si>
+    <t>311 121 2121</t>
+  </si>
+  <si>
+    <t>322 355 1325</t>
+  </si>
+  <si>
+    <t>322 150 6525</t>
+  </si>
+  <si>
+    <t>322 166 8123</t>
+  </si>
+  <si>
+    <t>322 146 3728</t>
+  </si>
+  <si>
+    <t>311 910 7405</t>
+  </si>
+  <si>
+    <t>311 108 1385</t>
+  </si>
+  <si>
+    <t>311 270 9913</t>
+  </si>
+  <si>
+    <t>311 230 2435</t>
+  </si>
+  <si>
+    <t>322 121 6554</t>
+  </si>
+  <si>
+    <t>311 268 1146</t>
+  </si>
+  <si>
+    <t>322 138 4693</t>
+  </si>
+  <si>
+    <t>311 261 5018</t>
+  </si>
+  <si>
+    <t>311 378 9793</t>
   </si>
   <si>
     <t>🚀 ¡No te pierdas el EXPO del SUMMIT TURÍSTICO INTERNACIONAL en Puerto Vallarta! 🌎✨
@@ -46,10 +262,19 @@
 ¡Lleva tu carrera al siguiente nivel! 🌟</t>
   </si>
   <si>
+    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
+🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
+📆 27-28 de junio
+📍 Centro Internacional de Convenciones, Puerto Vallarta
+https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
+Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
+📲 Más info: 56 1858 7276 / 32 2596 0129</t>
+  </si>
+  <si>
+    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\simmitb.png</t>
+  </si>
+  <si>
     <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\summita.png</t>
-  </si>
-  <si>
-    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\simmitb.png</t>
   </si>
 </sst>
 </file>
@@ -407,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,421 +650,421 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3112858211</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3310744374</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3112489208</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3311764121</v>
-      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3221123535</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3112502561</v>
+        <v>3271032762</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
-        <v>3121420274</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3221681790</v>
+        <v>3511324913</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
-        <v>3112481335</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3311452213</v>
+        <v>3241044081</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>3221337319</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>3118907454</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>3221682247</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>3118479269</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>3112927010</v>
-      </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3112646957</v>
+        <v>3314175868</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <v>3314364228</v>
+      <c r="A18" t="s">
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <v>3221571339</v>
+      <c r="A19" t="s">
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3224297819</v>
+        <v>3511000002</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3118773475</v>
+        <v>3241080235</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
-        <v>3112834759</v>
+      <c r="A22" t="s">
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>3121552887</v>
+      <c r="A23" t="s">
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
-        <v>3221171950</v>
+      <c r="A24" t="s">
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3222297972</v>
+        <v>3271042680</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
-        <v>3312827904</v>
+      <c r="A26" t="s">
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3314445523</v>
+        <v>3316990147</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3117400922</v>
+        <v>3521036512</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3221949339</v>
+        <v>3521065993</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3312415492</v>
+        <v>3521104383</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3118478190</v>
+        <v>3231313621</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
-        <v>3112532477</v>
+      <c r="A32" t="s">
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3310431078</v>
+        <v>3231179415</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3118769256</v>
+        <v>3338142640</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
-        <v>3221924259</v>
+      <c r="A35" t="s">
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
-        <v>3112600653</v>
+      <c r="A36" t="s">
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3221325598</v>
+        <v>3338157056</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
-        <v>3221200655</v>
+      <c r="A38" t="s">
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3310726442</v>
+        <v>3511451635</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -847,681 +1072,2056 @@
         <v>3314207946</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
-        <v>3112601365</v>
+      <c r="A41" t="s">
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
-        <v>3312362568</v>
+      <c r="A42" t="s">
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
-        <v>3314105200</v>
+      <c r="A43" t="s">
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
-        <v>3112665025</v>
+      <c r="A44" t="s">
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
-        <v>3221506317</v>
+      <c r="A45" t="s">
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3112631691</v>
+        <v>3241008226</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
-        <v>3112637937</v>
+      <c r="A47" t="s">
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
-        <v>3221215616</v>
+      <c r="A48" t="s">
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
-        <v>3311423355</v>
+      <c r="A49" t="s">
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
-        <v>3112507624</v>
+      <c r="A50" t="s">
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
-        <v>3311325352</v>
+      <c r="A51" t="s">
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3118475532</v>
+        <v>3241088057</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
-        <v>3310730500</v>
+      <c r="A53" t="s">
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
-        <v>3112480487</v>
+      <c r="A54" t="s">
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
-        <v>3117439583</v>
+      <c r="A55" t="s">
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
-        <v>3118477102</v>
+      <c r="A56" t="s">
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
-        <v>3118479759</v>
+      <c r="A57" t="s">
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
-        <v>3241088057</v>
+      <c r="A58" t="s">
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
-        <v>3121014126</v>
+      <c r="A59" t="s">
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
-        <v>3314660148</v>
+      <c r="A60" t="s">
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
-        <v>3118777167</v>
+      <c r="A61" t="s">
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
-        <v>3279789280</v>
+      <c r="A62" t="s">
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
-        <v>3118764555</v>
+      <c r="A63" t="s">
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
-        <v>3221354105</v>
+      <c r="A64" t="s">
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
-        <v>3113390655</v>
+      <c r="A65" t="s">
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3118475636</v>
+        <v>3237299836</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3118513411</v>
+        <v>3232823780</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
-        <v>3112696843</v>
+      <c r="A68" t="s">
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
-        <v>3314100111</v>
+      <c r="A69" t="s">
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
-        <v>3121133096</v>
+      <c r="A70" t="s">
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3112629929</v>
+        <v>3511864733</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
-        <v>3112601304</v>
+      <c r="A72" t="s">
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
-        <v>3311479227</v>
+      <c r="A73" t="s">
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
-        <v>3221686052</v>
+      <c r="A74" t="s">
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3312698614</v>
+        <v>3515196619</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3112648479</v>
+        <v>3231212470</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3112481033</v>
+        <v>3338227583</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3121574141</v>
+        <v>3511355776</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
-        <v>3314573759</v>
+      <c r="A79" t="s">
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
-        <v>3123181177</v>
+      <c r="A80" t="s">
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
-        <v>3112697278</v>
+      <c r="A81" t="s">
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
-        <v>3112664830</v>
+      <c r="A82" t="s">
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
-        <v>3119106877</v>
+      <c r="A83" t="s">
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
-        <v>3118768554</v>
+      <c r="A84" t="s">
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
-        <v>3221685499</v>
+      <c r="A85" t="s">
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
-        <v>3310459086</v>
+      <c r="A86" t="s">
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3311473989</v>
+        <v>3511093289</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>3310220956</v>
+        <v>3231224786</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3121946751</v>
+        <v>3511186044</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
-        <v>3312440447</v>
+      <c r="A90" t="s">
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
-        <v>3112666169</v>
+      <c r="A91" t="s">
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>3221822862</v>
+        <v>3232820779</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
-        <v>3221949339</v>
+      <c r="A93" t="s">
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
-        <v>3228886963</v>
+      <c r="A94" t="s">
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>3312188550</v>
+        <v>3231226187</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>3117434095</v>
+        <v>3241121496</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>3313642794</v>
+        <v>3271028151</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
-        <v>3312886339</v>
+      <c r="A98" t="s">
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
-        <v>3221208302</v>
+      <c r="A99" t="s">
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3117402952</v>
+        <v>3231215393</v>
       </c>
       <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>3271089285</v>
+      </c>
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>3331573886</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>3521205475</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>3517471062</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>3241061614</v>
+      </c>
+      <c r="B118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>3271083611</v>
+      </c>
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>3241037615</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>3231210929</v>
+      </c>
+      <c r="B124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>3515130393</v>
+      </c>
+      <c r="B125" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>3331585699</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>3515178732</v>
+      </c>
+      <c r="B128" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>3521128086</v>
+      </c>
+      <c r="B129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>3515098963</v>
+      </c>
+      <c r="B132" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>3511212230</v>
+      </c>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>3271036163</v>
+      </c>
+      <c r="B139" t="s">
+        <v>79</v>
+      </c>
+      <c r="C139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>66</v>
+      </c>
+      <c r="B140" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>63</v>
+      </c>
+      <c r="B141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>67</v>
+      </c>
+      <c r="B142" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" t="s">
+        <v>78</v>
+      </c>
+      <c r="C143" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>3511353191</v>
+      </c>
+      <c r="B144" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>68</v>
+      </c>
+      <c r="B146" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>3511906522</v>
+      </c>
+      <c r="B147" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>45</v>
+      </c>
+      <c r="B148" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>3315667060</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>3531008840</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>78</v>
+      </c>
+      <c r="C152" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" t="s">
+        <v>78</v>
+      </c>
+      <c r="C153" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>3521039105</v>
+      </c>
+      <c r="B154" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>71</v>
+      </c>
+      <c r="B156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
         <v>3</v>
       </c>
-      <c r="C100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>3112671211</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>5</v>
+      <c r="B157" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>68</v>
+      </c>
+      <c r="B158" t="s">
+        <v>78</v>
+      </c>
+      <c r="C158" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>3312354742</v>
+      </c>
+      <c r="B159" t="s">
+        <v>79</v>
+      </c>
+      <c r="C159" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>3279789280</v>
+      </c>
+      <c r="B160" t="s">
+        <v>79</v>
+      </c>
+      <c r="C160" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>3511248160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>53</v>
+      </c>
+      <c r="B162" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" t="s">
+        <v>78</v>
+      </c>
+      <c r="C163" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B164" t="s">
+        <v>78</v>
+      </c>
+      <c r="C164" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" t="s">
+        <v>78</v>
+      </c>
+      <c r="C165" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B166" t="s">
+        <v>78</v>
+      </c>
+      <c r="C166" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>3271030249</v>
+      </c>
+      <c r="B167" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>3511630604</v>
+      </c>
+      <c r="B168" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>3511494709</v>
+      </c>
+      <c r="B169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>78</v>
+      </c>
+      <c r="C170" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>69</v>
+      </c>
+      <c r="B171" t="s">
+        <v>78</v>
+      </c>
+      <c r="C171" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>78</v>
+      </c>
+      <c r="C172" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>61</v>
+      </c>
+      <c r="B173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C173" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>3312917196</v>
+      </c>
+      <c r="B174" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" t="s">
+        <v>78</v>
+      </c>
+      <c r="C175" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B176" t="s">
+        <v>78</v>
+      </c>
+      <c r="C176" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>3515092917</v>
+      </c>
+      <c r="B177" t="s">
+        <v>79</v>
+      </c>
+      <c r="C177" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" t="s">
+        <v>78</v>
+      </c>
+      <c r="C178" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>3515125354</v>
+      </c>
+      <c r="B179" t="s">
+        <v>79</v>
+      </c>
+      <c r="C179" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B180" t="s">
+        <v>78</v>
+      </c>
+      <c r="C180" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" t="s">
+        <v>78</v>
+      </c>
+      <c r="C181" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>3521071017</v>
+      </c>
+      <c r="B182" t="s">
+        <v>79</v>
+      </c>
+      <c r="C182" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B183" t="s">
+        <v>78</v>
+      </c>
+      <c r="C183" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>3511287325</v>
+      </c>
+      <c r="B184" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>3511191005</v>
+      </c>
+      <c r="B185" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" t="s">
+        <v>78</v>
+      </c>
+      <c r="C186" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" t="s">
+        <v>78</v>
+      </c>
+      <c r="C187" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" t="s">
+        <v>78</v>
+      </c>
+      <c r="C188" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>76</v>
+      </c>
+      <c r="B189" t="s">
+        <v>78</v>
+      </c>
+      <c r="C189" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" t="s">
+        <v>78</v>
+      </c>
+      <c r="C190" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" t="s">
+        <v>78</v>
+      </c>
+      <c r="C191" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192" t="s">
+        <v>78</v>
+      </c>
+      <c r="C192" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193" t="s">
+        <v>78</v>
+      </c>
+      <c r="C193" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>67</v>
+      </c>
+      <c r="B194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C194" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>60</v>
+      </c>
+      <c r="B195" t="s">
+        <v>78</v>
+      </c>
+      <c r="C195" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>62</v>
+      </c>
+      <c r="B196" t="s">
+        <v>78</v>
+      </c>
+      <c r="C196" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>3271114298</v>
+      </c>
+      <c r="B197" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>78</v>
+      </c>
+      <c r="C198" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>41</v>
+      </c>
+      <c r="B199" t="s">
+        <v>78</v>
+      </c>
+      <c r="C199" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200" t="s">
+        <v>78</v>
+      </c>
+      <c r="C200" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>3511279150</v>
+      </c>
+      <c r="B201" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>77</v>
+      </c>
+      <c r="B202" t="s">
+        <v>78</v>
+      </c>
+      <c r="C202" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" t="s">
+        <v>78</v>
+      </c>
+      <c r="C203" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>78</v>
+      </c>
+      <c r="C204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>3521004700</v>
+      </c>
+      <c r="B205" t="s">
+        <v>79</v>
+      </c>
+      <c r="C205" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>3241050463</v>
+      </c>
+      <c r="B206" t="s">
+        <v>79</v>
+      </c>
+      <c r="C206" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>3318938757</v>
+      </c>
+      <c r="B207" t="s">
+        <v>79</v>
+      </c>
+      <c r="C207" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>71</v>
+      </c>
+      <c r="B208" t="s">
+        <v>78</v>
+      </c>
+      <c r="C208" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" t="s">
+        <v>78</v>
+      </c>
+      <c r="C209" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>33</v>
+      </c>
+      <c r="B210" t="s">
+        <v>78</v>
+      </c>
+      <c r="C210" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>3231134945</v>
+      </c>
+      <c r="B211" t="s">
+        <v>79</v>
+      </c>
+      <c r="C211" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>50</v>
+      </c>
+      <c r="B212" t="s">
+        <v>78</v>
+      </c>
+      <c r="C212" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>77</v>
+      </c>
+      <c r="B213" t="s">
+        <v>78</v>
+      </c>
+      <c r="C213" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" t="s">
+        <v>78</v>
+      </c>
+      <c r="C214" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>42</v>
+      </c>
+      <c r="B215" t="s">
+        <v>78</v>
+      </c>
+      <c r="C215" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>3231219708</v>
+      </c>
+      <c r="B216" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>64</v>
+      </c>
+      <c r="B217" t="s">
+        <v>78</v>
+      </c>
+      <c r="C217" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" t="s">
+        <v>78</v>
+      </c>
+      <c r="C218" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>78</v>
+      </c>
+      <c r="C219" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>70</v>
+      </c>
+      <c r="B220" t="s">
+        <v>78</v>
+      </c>
+      <c r="C220" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>72</v>
+      </c>
+      <c r="B221" t="s">
+        <v>78</v>
+      </c>
+      <c r="C221" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>51</v>
+      </c>
+      <c r="B222" t="s">
+        <v>78</v>
+      </c>
+      <c r="C222" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>3241009610</v>
+      </c>
+      <c r="B223" t="s">
+        <v>79</v>
+      </c>
+      <c r="C223" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>44</v>
+      </c>
+      <c r="B224" t="s">
+        <v>78</v>
+      </c>
+      <c r="C224" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>3531001517</v>
+      </c>
+      <c r="B225" t="s">
+        <v>79</v>
+      </c>
+      <c r="C225" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>75</v>
+      </c>
+      <c r="B226" t="s">
+        <v>78</v>
+      </c>
+      <c r="C226" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
